--- a/Lemon/FutureLoan_API/datas/cases.xlsx
+++ b/Lemon/FutureLoan_API/datas/cases.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MOOC\Lemon\FutureLoan_API\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FDF94A-A682-4346-AF60-8F5F5827C2DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8020" windowWidth="14810" xWindow="240" yWindow="110"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="invest" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invest" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>case_id</t>
   </si>
@@ -133,7 +127,7 @@
     <t>/member/recharge</t>
   </si>
   <si>
-    <t>{"mobilephone":"13812121212","pwd":"123456"}</t>
+    <t>{"mobilephone":"${normal_tel}","pwd":"123456"}</t>
   </si>
   <si>
     <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
@@ -145,13 +139,13 @@
     <t>正常充值</t>
   </si>
   <si>
-    <t>{"mobilephone":"13812121212","amount":"100"}</t>
+    <t>{"mobilephone":"${normal_tel}","amount":"100"}</t>
   </si>
   <si>
     <t>充值手机号码不存在</t>
   </si>
   <si>
-    <t>{"mobilephone":"12345678985","amount":""}</t>
+    <t>{"mobilephone":"${normal_tel}","amount":""}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
@@ -160,7 +154,7 @@
     <t>充值金额小数点大于两位</t>
   </si>
   <si>
-    <t>{"mobilephone":"13812121212","amount":"33.2222"}</t>
+    <t>{"mobilephone":"${normal_tel}","amount":"33.2222"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
@@ -169,56 +163,57 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -249,42 +244,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -574,24 +560,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="32.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" customWidth="1"/>
-    <col min="4" max="4" width="68.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="91.90625" customWidth="1"/>
-    <col min="7" max="7" width="103.7265625" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="10.1796875"/>
+    <col customWidth="1" max="2" min="2" width="32.08984375"/>
+    <col customWidth="1" max="3" min="3" width="26.26953125"/>
+    <col customWidth="1" max="4" min="4" width="68.26953125"/>
+    <col customWidth="1" max="5" min="5" width="13.90625"/>
+    <col customWidth="1" max="6" min="6" width="91.90625"/>
+    <col customWidth="1" max="7" min="7" width="103.7265625"/>
+    <col customWidth="1" max="8" min="8" width="19.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.25" r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -617,8 +609,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row customHeight="1" ht="16.75" r="2" spans="1:8">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -643,8 +635,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row customHeight="1" ht="17.4" r="3" spans="1:8">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -669,8 +661,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row customHeight="1" ht="17.4" r="4" spans="1:8">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -695,8 +687,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row customHeight="1" ht="17.4" r="5" spans="1:8">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -722,33 +714,36 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" customWidth="1"/>
-    <col min="4" max="4" width="87.81640625" customWidth="1"/>
-    <col min="5" max="5" width="26.6328125" customWidth="1"/>
-    <col min="6" max="6" width="126.36328125" customWidth="1"/>
-    <col min="7" max="7" width="126.90625" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="18.08984375"/>
+    <col customWidth="1" max="2" min="2" width="33.54296875"/>
+    <col customWidth="1" max="3" min="3" width="41.453125"/>
+    <col customWidth="1" max="4" min="4" width="87.81640625"/>
+    <col customWidth="1" max="5" min="5" width="26.6328125"/>
+    <col customWidth="1" max="6" min="6" width="126.36328125"/>
+    <col customWidth="1" max="7" min="7" width="126.90625"/>
+    <col customWidth="1" max="8" min="8" width="21.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="27.65" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,8 +769,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row customHeight="1" ht="25.75" r="2" spans="1:8">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -800,8 +795,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row customHeight="1" ht="25.75" r="3" spans="1:8">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -826,8 +821,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row customHeight="1" ht="25.75" r="4" spans="1:8">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -852,8 +847,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row customHeight="1" ht="25.75" r="5" spans="1:8">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -879,31 +874,36 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
-    <col min="2" max="2" width="43.81640625" customWidth="1"/>
-    <col min="3" max="3" width="37.453125" customWidth="1"/>
-    <col min="4" max="4" width="88.81640625" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" customWidth="1"/>
-    <col min="6" max="6" width="146.90625" customWidth="1"/>
-    <col min="7" max="7" width="138.26953125" customWidth="1"/>
-    <col min="8" max="8" width="32.08984375" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="17.6328125"/>
+    <col customWidth="1" max="2" min="2" width="43.81640625"/>
+    <col customWidth="1" max="3" min="3" width="37.453125"/>
+    <col customWidth="1" max="4" min="4" width="88.81640625"/>
+    <col customWidth="1" max="5" min="5" width="19.81640625"/>
+    <col customWidth="1" max="6" min="6" width="146.90625"/>
+    <col customWidth="1" max="7" min="7" width="138.26953125"/>
+    <col customWidth="1" max="8" min="8" width="32.08984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="27.65" r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,8 +929,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row customHeight="1" ht="25.75" r="2" spans="1:8">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -955,8 +955,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row customHeight="1" ht="25.75" r="3" spans="1:8">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -981,8 +981,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row customHeight="1" ht="25.75" r="4" spans="1:8">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1007,8 +1007,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row customHeight="1" ht="25.75" r="5" spans="1:8">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1034,29 +1034,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://test.lemonban.com/futureloan/mvc/api/member/login" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://test.lemonban.com/futureloan/mvc/api/member/login" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" display="http://test.lemonban.com/futureloan/mvc/api/member/login" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" display="http://test.lemonban.com/futureloan/mvc/api/member/login" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C5" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>